--- a/biology/Botanique/Lonchocarpus_monilis/Lonchocarpus_monilis.xlsx
+++ b/biology/Botanique/Lonchocarpus_monilis/Lonchocarpus_monilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lonchocarpus monilis est une espèce d'arbuste de la famille des Fabaceae.
-Le nom correct de ce taxon serait Muellera frutescens (Aubl.) Standl.[3].
+Le nom correct de ce taxon serait Muellera frutescens (Aubl.) Standl..
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbuste (ou petit arbre) peut atteindre 2 à 7 m de hauteur. Il produit des feuilles à 5 folioles oblongues, acuminées, subcoriaces, glabres, ponctuées de points pellucides et mesurant 5–12 × 2,5–4,5 centimètres.
 Perdant son feuillage lors de la floraison, il produit des inflorescences axillaires, tomenteuses longues de 4-8 centimètres. Le calice oblique, pubescent, mesure 5 millimètres et la corolle violette est longue de 18 millimètres.
-Ses gousses d'un diamètre de 3 centimètres comportent 4 à 5 graines, 4 comprimées, orbiculaires mesurant 1,5 × 1,5 × 1 centimètre[4].
+Ses gousses d'un diamètre de 3 centimètres comportent 4 à 5 graines, 4 comprimées, orbiculaires mesurant 1,5 × 1,5 × 1 centimètre.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre cet arbuste dans les Antilles, en Amérique centrale (Mexique) et en Amérique du Sud : Colombie, Trinidad, Venezuela (État de Sucre et État du Delta Amacuro : Angosturita, Caño Araguao, Caño Bagre, Caño Joba-Suburu, est de Caño Sacupana, Pedernales), Guyana, Suriname, Guyane, Pérou, Brésil (Amapá, Maranhão, Pará)[5],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre cet arbuste dans les Antilles, en Amérique centrale (Mexique) et en Amérique du Sud : Colombie, Trinidad, Venezuela (État de Sucre et État du Delta Amacuro : Angosturita, Caño Araguao, Caño Bagre, Caño Joba-Suburu, est de Caño Sacupana, Pedernales), Guyana, Suriname, Guyane, Pérou, Brésil (Amapá, Maranhão, Pará),.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbuste pousse sur le littoral, parmi les rochers de bord de mer, dans les mangroves, dans les forêts inondées et humides plus ou moins saumâtres, depuis le niveau de la mer jusqu'à 50 mètres d'altitude[5]. Il fleurit et fructifie en Guyane de décembre à juillet[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbuste pousse sur le littoral, parmi les rochers de bord de mer, dans les mangroves, dans les forêts inondées et humides plus ou moins saumâtres, depuis le niveau de la mer jusqu'à 50 mètres d'altitude. Il fleurit et fructifie en Guyane de décembre à juillet.
 			Gousse de Lonchocarpus monilis (L.) A.M.G. Azevedo (par Paul Hermann Wilhelm Taubert, 1891)
 </t>
         </is>
@@ -608,9 +626,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet rapporte ceci[6] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet rapporte ceci : 
 « COUBLANDIA frutefcens. (TABULA 356.)
 Frutex trunco quinque aut ſex-pedali, ramoſo ; ramis erectis; hine &amp; indè ſparſis. Folia alterna, impari-pinnata ; foliolis quinis, duorum parium, &amp; per paria oppoſitis, ovatis, obtuſis, acutis, glabris, integerrimis, petiolatis, uni coſtae adnexis. Ad baſim folii, stipule binae, deciduae. Flores ſpicaci, axillares &amp; terminales. Corolla alba. Legumen viride. 
 Floret, fructumque fert, quovis anni tempore. 
